--- a/biology/Botanique/Oryza_minuta/Oryza_minuta.xlsx
+++ b/biology/Botanique/Oryza_minuta/Oryza_minuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oryza minuta est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae[2], originaire de l'Asie tropicale. 
-Ce sont des plantes herbacées vivaces, cespiteuses, aux tiges (chaumes) géniculées ascendantes ou décombantes, pouvant atteindre 50 à 100 cm de long. L'inflorescence est une panicule comprenant de 6 à 20 épillets fertiles[2].
-Cette espèce de riz sauvage tétraploïde (2n=48), au génome de type BBCC, fait partie du pool génique du riz. Elle présente de caractères de résistance à des maladies ou à des insectes dont certains, notamment la résistance à la pyriculariose (ou blast) et à la nielle bactérienne (ou bacterial blight), ont été transférés, par rétrocroisements suivis de sauvetage d'embryons, dans des cultivars de riz cultivé (Oryza sativa)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oryza minuta est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae, originaire de l'Asie tropicale. 
+Ce sont des plantes herbacées vivaces, cespiteuses, aux tiges (chaumes) géniculées ascendantes ou décombantes, pouvant atteindre 50 à 100 cm de long. L'inflorescence est une panicule comprenant de 6 à 20 épillets fertiles.
+Cette espèce de riz sauvage tétraploïde (2n=48), au génome de type BBCC, fait partie du pool génique du riz. Elle présente de caractères de résistance à des maladies ou à des insectes dont certains, notamment la résistance à la pyriculariose (ou blast) et à la nielle bactérienne (ou bacterial blight), ont été transférés, par rétrocroisements suivis de sauvetage d'embryons, dans des cultivars de riz cultivé (Oryza sativa).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (29 avril 2017)[4] : 	
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 avril 2017) : 	
 Oryza manilensis Merr.
 Oryza sativa var. minuta (J.Presl) Körn.</t>
         </is>
@@ -545,9 +559,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (29 avril 2017)[5] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (29 avril 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Oryza minuta var. minuta
 variété Oryza minuta var. silvatica (A. Camus) Veldkamp</t>
         </is>
